--- a/va_facility_data_2025-02-20/Colonel Charles and JoAnne Powell VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Colonel%20Charles%20and%20JoAnne%20Powell%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Colonel Charles and JoAnne Powell VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Colonel%20Charles%20and%20JoAnne%20Powell%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R7a81d2be9b134a7b81404daeed7ad2cd"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rffd2182e3ab34b31a622c52055859182"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R583fe472a4ef45909faa65c7e61ef400"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rcbcf4bf255104ef3920c65b0422fc7a2"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re1d0f914dd0f4dd0a43e1112a56b528a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R87eb8daa888444e98685395e25a5373d"/>
   </x:sheets>
 </x:workbook>
 </file>
